--- a/Desafio Python Web Scraping/webscrap.xlsx
+++ b/Desafio Python Web Scraping/webscrap.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Severity</t>
+          <t>Severity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -494,7 +494,11 @@
           <t>CVE-2022-28890</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Maio 05, 2022; 5:15:08 AM -0400</t>
@@ -517,7 +521,11 @@
           <t>CVE-2022-29265</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Abril 30, 2022; 4:15:06 AM -0400</t>
@@ -540,7 +548,11 @@
           <t>CVE-2022-23942</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Abril 26, 2022; 12:15:47 PM -0400</t>
@@ -563,7 +575,11 @@
           <t>CVE-2022-24706</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Abril 26, 2022; 6:15:35 AM -0400</t>
@@ -586,7 +602,11 @@
           <t>CVE-2022-29266</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Abril 20, 2022; 4:15:07 AM -0400</t>
@@ -609,7 +629,11 @@
           <t>CVE-2022-0070</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Abril 19, 2022; 7:15:13 PM -0400</t>
@@ -632,7 +656,11 @@
           <t>CVE-2021-3100</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Abril 19, 2022; 7:15:13 PM -0400</t>
@@ -655,7 +683,11 @@
           <t>CVE-2022-27479</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Abril 13, 2022; 3:15:09 PM -0400</t>
@@ -678,7 +710,11 @@
           <t>CVE-2022-24070</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Abril 12, 2022; 2:15:09 PM -0400</t>
@@ -701,7 +737,11 @@
           <t>CVE-2021-28544</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Abril 12, 2022; 2:15:08 PM -0400</t>
@@ -724,7 +764,11 @@
           <t>CVE-2021-31805</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>Abril 12, 2022; 12:15:08 PM -0400</t>

--- a/Desafio Python Web Scraping/webscrap.xlsx
+++ b/Desafio Python Web Scraping/webscrap.xlsx
@@ -494,10 +494,8 @@
           <t>CVE-2022-28890</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
+      <c r="C3" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -521,10 +519,8 @@
           <t>CVE-2022-29265</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+      <c r="C4" t="n">
+        <v>7.5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -548,10 +544,8 @@
           <t>CVE-2022-23942</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+      <c r="C5" t="n">
+        <v>7.5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -575,10 +569,8 @@
           <t>CVE-2022-24706</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
+      <c r="C6" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -602,10 +594,8 @@
           <t>CVE-2022-29266</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+      <c r="C7" t="n">
+        <v>7.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -629,10 +619,8 @@
           <t>CVE-2022-0070</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="C8" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -656,10 +644,8 @@
           <t>CVE-2021-3100</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="C9" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -683,10 +669,8 @@
           <t>CVE-2022-27479</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
+      <c r="C10" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -710,10 +694,8 @@
           <t>CVE-2022-24070</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+      <c r="C11" t="n">
+        <v>7.5</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -737,10 +719,8 @@
           <t>CVE-2021-28544</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
+      <c r="C12" t="n">
+        <v>4.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -764,10 +744,8 @@
           <t>CVE-2021-31805</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
+      <c r="C13" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
